--- a/powerpoint/Gestion de projet informatique.xlsx
+++ b/powerpoint/Gestion de projet informatique.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876815EB-93A2-40B1-AD01-D87E855568B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{876815EB-93A2-40B1-AD01-D87E855568B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EDFF5D-E3BB-4DE0-B3AB-D687B9453A4E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
@@ -2298,16 +2298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1030668</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147486</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>690489</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7EDC20-7B7C-4A7E-972E-FECEFF2E9DC1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
